--- a/mathTransformed/HMPSTT_(2016-07-24)_23_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-07-24)_23_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -484,6 +489,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Govt. High SchoolToranadinniManvi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -511,6 +521,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Sajjalashri High School MegalapetMudagallaLingasagur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -538,6 +553,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Sri Basaveshwar High School Lingasagur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -565,6 +585,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Govt. P U College (High School Section) Hutti Gold MinesLingasugur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -594,6 +619,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Sri Amreswar Girls High School Lingasugur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -621,6 +651,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt. Urdu High SchoolLingasugur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -648,6 +683,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Morarji Desai Residential School DevarabhupurLingasagur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -677,6 +717,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S Rajalabanda</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Manvi Raichur</t>
         </is>
       </c>
@@ -706,6 +751,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S Alkod</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Deovadurga Raichur</t>
         </is>
       </c>
@@ -735,6 +785,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S NagarahalLingasagur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -762,6 +817,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S ChagabhaviManvi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -789,6 +849,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Morarji Desai Residencial school MaskiLingasugur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -818,6 +883,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. Boys Junior College (High School Section) Sindhanur</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -845,6 +915,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S Maddipet</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -874,6 +949,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S R H Colony No – 2Sindhanur</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -903,6 +983,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S B GanekalDeovadurga</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -930,6 +1015,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Hamdard High School</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -957,6 +1047,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Govt. Comp. Jr College for boys High School sectionmaskiLingsugur</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -986,6 +1081,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S HalapurManvi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1013,6 +1113,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Kittur Rani Channamma Residensial SchoolAdavibhaviLingasugur</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1040,6 +1145,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S PothnalManvi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1067,6 +1177,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Govt. High School BallatagiManvi</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Racihur</t>
         </is>
       </c>
@@ -1093,6 +1208,11 @@
         </is>
       </c>
       <c r="F25" t="inlineStr">
+        <is>
+          <t>Sri Amareshwara High School EachanalLingasur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Raichur</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-07-24)_23_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-07-24)_23_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Manvi Raichur</t>
+          <t>Raichur</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Deovadurga Raichur</t>
+          <t>Raichur</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Racihur</t>
+          <t>Raichur</t>
         </is>
       </c>
     </row>
